--- a/reports/cartera/Cartera Valorada.xlsx
+++ b/reports/cartera/Cartera Valorada.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cartera" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Código</t>
   </si>
@@ -46,7 +46,7 @@
     <t>108</t>
   </si>
   <si>
-    <t>30/junio/2022</t>
+    <t>30/06/2022</t>
   </si>
   <si>
     <t>ACC</t>
@@ -61,54 +61,36 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>26,328.00</t>
-  </si>
-  <si>
     <t>BGA1B</t>
   </si>
   <si>
     <t>947726.73</t>
   </si>
   <si>
-    <t>6,417.00</t>
-  </si>
-  <si>
     <t>BGA1C</t>
   </si>
   <si>
     <t>1125397.80</t>
   </si>
   <si>
-    <t>7,620.00</t>
-  </si>
-  <si>
     <t>BGA1D</t>
   </si>
   <si>
     <t>1354021.92</t>
   </si>
   <si>
-    <t>9,168.00</t>
-  </si>
-  <si>
     <t>BGA1E</t>
   </si>
   <si>
     <t>3411639.00</t>
   </si>
   <si>
-    <t>23,100.00</t>
-  </si>
-  <si>
     <t>BNB1U</t>
   </si>
   <si>
     <t>651040.00</t>
   </si>
   <si>
-    <t>52,000.00</t>
-  </si>
-  <si>
     <t>BBB</t>
   </si>
   <si>
@@ -118,9 +100,6 @@
     <t>36211.40</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t>BEC-3-N2U-16</t>
   </si>
   <si>
@@ -133,63 +112,42 @@
     <t>2009938.00</t>
   </si>
   <si>
-    <t>200.00</t>
-  </si>
-  <si>
     <t>BME-1-E1C-17</t>
   </si>
   <si>
     <t>615300.00</t>
   </si>
   <si>
-    <t>600.00</t>
-  </si>
-  <si>
     <t>BME-1-N2B-15</t>
   </si>
   <si>
     <t>7097811.00</t>
   </si>
   <si>
-    <t>700.00</t>
-  </si>
-  <si>
     <t>BME-1-N3B-15</t>
   </si>
   <si>
     <t>2928379.40</t>
   </si>
   <si>
-    <t>290.00</t>
-  </si>
-  <si>
     <t>BME-2-E1B-19</t>
   </si>
   <si>
     <t>204602.50</t>
   </si>
   <si>
-    <t>250.00</t>
-  </si>
-  <si>
     <t>BME-2-N3B-16</t>
   </si>
   <si>
     <t>1099759.00</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
     <t>BTB-N1U-13</t>
   </si>
   <si>
     <t>3802564.47</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t>FIE-N1B-14</t>
   </si>
   <si>
@@ -205,63 +163,42 @@
     <t>706022.49</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
     <t>FIN-4-N2U-19</t>
   </si>
   <si>
     <t>2981280.00</t>
   </si>
   <si>
-    <t>3,000.00</t>
-  </si>
-  <si>
     <t>ICT-1-N1A-20</t>
   </si>
   <si>
     <t>5322849.00</t>
   </si>
   <si>
-    <t>1,050.00</t>
-  </si>
-  <si>
     <t>JSF-1-E1B-19</t>
   </si>
   <si>
     <t>406944.80</t>
   </si>
   <si>
-    <t>395.00</t>
-  </si>
-  <si>
     <t>NIB-1-N1B-19</t>
   </si>
   <si>
     <t>508769.10</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>PAR-1-N1U-16</t>
   </si>
   <si>
     <t>617325.30</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>POL-3-E1U-20</t>
   </si>
   <si>
     <t>125202.48</t>
   </si>
   <si>
-    <t>13.00</t>
-  </si>
-  <si>
     <t>SBC-7-N1U-16</t>
   </si>
   <si>
@@ -274,27 +211,18 @@
     <t>3018978.00</t>
   </si>
   <si>
-    <t>300.00</t>
-  </si>
-  <si>
     <t>SBC-7-N2U-19</t>
   </si>
   <si>
     <t>1410683.40</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
     <t>SOC-N1U-20</t>
   </si>
   <si>
     <t>7243420.80</t>
   </si>
   <si>
-    <t>6,888.00</t>
-  </si>
-  <si>
     <t>CFC</t>
   </si>
   <si>
@@ -304,54 +232,36 @@
     <t>6585361.45</t>
   </si>
   <si>
-    <t>5.00</t>
-  </si>
-  <si>
     <t>CRF-N1U-15</t>
   </si>
   <si>
     <t>14950206.64</t>
   </si>
   <si>
-    <t>136.00</t>
-  </si>
-  <si>
     <t>DIV-E1U-18</t>
   </si>
   <si>
     <t>589694.22</t>
   </si>
   <si>
-    <t>277.00</t>
-  </si>
-  <si>
     <t>EXP-N1U-18</t>
   </si>
   <si>
     <t>3306436.50</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>INC-N1B-16</t>
   </si>
   <si>
     <t>511335.00</t>
   </si>
   <si>
-    <t>500.00</t>
-  </si>
-  <si>
     <t>SFI-N1U-17</t>
   </si>
   <si>
     <t>443755.46</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>DPF</t>
   </si>
   <si>
@@ -361,9 +271,6 @@
     <t>5826809.49</t>
   </si>
   <si>
-    <t>1.00</t>
-  </si>
-  <si>
     <t>BECN03087221</t>
   </si>
   <si>
@@ -736,16 +643,10 @@
     <t>1022290.00</t>
   </si>
   <si>
-    <t>1,000.00</t>
-  </si>
-  <si>
     <t>TSM-PB2-E2U</t>
   </si>
   <si>
     <t>756300.00</t>
-  </si>
-  <si>
-    <t>750.00</t>
   </si>
 </sst>
 </file>
@@ -753,7 +654,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.00; (#,##0.00); -" numFmtId="164"/>
+    <numFmt formatCode="#,##0.00; (#,##0.00); 0" numFmtId="164"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -934,14 +835,14 @@
       <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>15</v>
+      <c r="H2" s="9" t="n">
+        <v>26328</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>26328</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -955,25 +856,25 @@
         <v>12</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>15</v>
+      <c r="H3" s="9" t="n">
+        <v>6417</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>6417</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -987,25 +888,25 @@
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>15</v>
+      <c r="H4" s="9" t="n">
+        <v>7620</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>7620</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1019,25 +920,25 @@
         <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>15</v>
+      <c r="H5" s="9" t="n">
+        <v>9168</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>9168</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1051,25 +952,25 @@
         <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>15</v>
+      <c r="H6" s="9" t="n">
+        <v>23100</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>23100</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1083,25 +984,25 @@
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>15</v>
+      <c r="H7" s="9" t="n">
+        <v>52000</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>52000</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1112,28 +1013,28 @@
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>15</v>
+      <c r="H8" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1144,28 +1045,28 @@
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>15</v>
+      <c r="H9" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1176,28 +1077,28 @@
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>15</v>
+      <c r="H10" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1208,28 +1109,28 @@
         <v>11</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>15</v>
+      <c r="H11" s="9" t="n">
+        <v>600</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>600</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1240,28 +1141,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>15</v>
+      <c r="H12" s="9" t="n">
+        <v>700</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>700</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1272,28 +1173,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>15</v>
+      <c r="H13" s="9" t="n">
+        <v>290</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>290</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1304,28 +1205,28 @@
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>15</v>
+      <c r="H14" s="9" t="n">
+        <v>250</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>250</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1336,28 +1237,28 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>15</v>
+      <c r="H15" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1368,28 +1269,28 @@
         <v>11</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>15</v>
+      <c r="H16" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1400,28 +1301,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>15</v>
+      <c r="H17" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1432,28 +1333,28 @@
         <v>11</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>15</v>
+      <c r="H18" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1464,28 +1365,28 @@
         <v>11</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>15</v>
+      <c r="H19" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1496,28 +1397,28 @@
         <v>11</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>15</v>
+      <c r="H20" s="9" t="n">
+        <v>1050</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>1050</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1528,28 +1429,28 @@
         <v>11</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>15</v>
+      <c r="H21" s="9" t="n">
+        <v>395</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>395</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1560,28 +1461,28 @@
         <v>11</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>15</v>
+      <c r="H22" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1592,28 +1493,28 @@
         <v>11</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>15</v>
+      <c r="H23" s="9" t="n">
+        <v>135</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>135</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1624,28 +1525,28 @@
         <v>11</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="F24" s="9" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>15</v>
+      <c r="H24" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1656,28 +1557,28 @@
         <v>11</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>15</v>
+      <c r="H25" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1688,28 +1589,28 @@
         <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>15</v>
+      <c r="H26" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1720,28 +1621,28 @@
         <v>11</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>15</v>
+      <c r="H27" s="9" t="n">
+        <v>140</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>140</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1752,28 +1653,28 @@
         <v>11</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>15</v>
+      <c r="H28" s="9" t="n">
+        <v>6888</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>6888</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1784,28 +1685,28 @@
         <v>11</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>15</v>
+      <c r="H29" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1816,28 +1717,28 @@
         <v>11</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>15</v>
+      <c r="H30" s="9" t="n">
+        <v>136</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>136</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1848,28 +1749,28 @@
         <v>11</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>15</v>
+      <c r="H31" s="9" t="n">
+        <v>277</v>
+      </c>
+      <c r="I31" s="9" t="n">
+        <v>277</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1880,28 +1781,28 @@
         <v>11</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>15</v>
+      <c r="H32" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I32" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1912,28 +1813,28 @@
         <v>11</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>15</v>
+      <c r="H33" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="I33" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1944,28 +1845,28 @@
         <v>11</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>15</v>
+      <c r="H34" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1976,28 +1877,28 @@
         <v>11</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>15</v>
+      <c r="H35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2008,28 +1909,28 @@
         <v>11</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>15</v>
+      <c r="H36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2040,28 +1941,28 @@
         <v>11</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>15</v>
+      <c r="H37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2072,28 +1973,28 @@
         <v>11</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>15</v>
+      <c r="H38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2104,28 +2005,28 @@
         <v>11</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>15</v>
+      <c r="H39" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2136,28 +2037,28 @@
         <v>11</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>15</v>
+      <c r="H40" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2168,28 +2069,28 @@
         <v>11</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>15</v>
+      <c r="H41" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2200,28 +2101,28 @@
         <v>11</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>15</v>
+      <c r="H42" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2232,28 +2133,28 @@
         <v>11</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>15</v>
+      <c r="H43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2264,28 +2165,28 @@
         <v>11</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>15</v>
+      <c r="H44" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2296,28 +2197,28 @@
         <v>11</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>15</v>
+      <c r="H45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2328,28 +2229,28 @@
         <v>11</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>15</v>
+      <c r="H46" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2360,28 +2261,28 @@
         <v>11</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>15</v>
+      <c r="H47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2392,28 +2293,28 @@
         <v>11</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>15</v>
+      <c r="H48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2424,28 +2325,28 @@
         <v>11</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>15</v>
+      <c r="H49" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2456,28 +2357,28 @@
         <v>11</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="F50" s="9" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>15</v>
+      <c r="H50" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2488,28 +2389,28 @@
         <v>11</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>15</v>
+      <c r="H51" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2520,28 +2421,28 @@
         <v>11</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>15</v>
+      <c r="H52" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2552,28 +2453,28 @@
         <v>11</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>15</v>
+      <c r="H53" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2584,28 +2485,28 @@
         <v>11</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>15</v>
+      <c r="H54" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2616,28 +2517,28 @@
         <v>11</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>15</v>
+      <c r="H55" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2648,28 +2549,28 @@
         <v>11</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>15</v>
+      <c r="H56" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2680,28 +2581,28 @@
         <v>11</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>15</v>
+      <c r="H57" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2712,28 +2613,28 @@
         <v>11</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>15</v>
+      <c r="H58" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2744,28 +2645,28 @@
         <v>11</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>15</v>
+      <c r="H59" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2776,28 +2677,28 @@
         <v>11</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>15</v>
+      <c r="H60" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2808,28 +2709,28 @@
         <v>11</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>15</v>
+      <c r="H61" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2840,28 +2741,28 @@
         <v>11</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>15</v>
+      <c r="H62" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2872,28 +2773,28 @@
         <v>11</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>15</v>
+      <c r="H63" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2904,28 +2805,28 @@
         <v>11</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>15</v>
+      <c r="H64" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2936,28 +2837,28 @@
         <v>11</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>15</v>
+      <c r="H65" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2968,28 +2869,28 @@
         <v>11</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>15</v>
+      <c r="H66" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3000,28 +2901,28 @@
         <v>11</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H67" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>15</v>
+      <c r="H67" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3032,28 +2933,28 @@
         <v>11</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>15</v>
+      <c r="H68" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3064,28 +2965,28 @@
         <v>11</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>15</v>
+      <c r="H69" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3096,28 +2997,28 @@
         <v>11</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>15</v>
+      <c r="H70" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3128,28 +3029,28 @@
         <v>11</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>15</v>
+      <c r="H71" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3160,28 +3061,28 @@
         <v>11</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>15</v>
+      <c r="H72" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3192,28 +3093,28 @@
         <v>11</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>15</v>
+      <c r="H73" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3224,28 +3125,28 @@
         <v>11</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>15</v>
+      <c r="H74" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3256,28 +3157,28 @@
         <v>11</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>15</v>
+      <c r="H75" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3288,28 +3189,28 @@
         <v>11</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>15</v>
+      <c r="H76" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3320,28 +3221,28 @@
         <v>11</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>15</v>
+      <c r="H77" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3352,28 +3253,28 @@
         <v>11</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>15</v>
+      <c r="H78" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3384,28 +3285,28 @@
         <v>11</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>15</v>
+      <c r="H79" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3416,28 +3317,28 @@
         <v>11</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>15</v>
+      <c r="H80" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3448,28 +3349,28 @@
         <v>11</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>15</v>
+      <c r="H81" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3480,28 +3381,28 @@
         <v>11</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>15</v>
+      <c r="H82" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3512,28 +3413,28 @@
         <v>11</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>15</v>
+      <c r="H83" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3544,28 +3445,28 @@
         <v>11</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>15</v>
+      <c r="H84" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3576,28 +3477,28 @@
         <v>11</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>15</v>
+      <c r="H85" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3608,28 +3509,28 @@
         <v>11</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>15</v>
+      <c r="H86" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3640,28 +3541,28 @@
         <v>11</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H87" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>15</v>
+      <c r="H87" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3672,28 +3573,28 @@
         <v>11</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J88" s="9" t="s">
-        <v>15</v>
+      <c r="H88" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3704,28 +3605,28 @@
         <v>11</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="G89" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H89" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>15</v>
+      <c r="H89" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3736,28 +3637,28 @@
         <v>11</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="G90" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J90" s="9" t="s">
-        <v>15</v>
+      <c r="H90" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3768,28 +3669,28 @@
         <v>11</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G91" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J91" s="9" t="s">
-        <v>15</v>
+      <c r="H91" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3800,28 +3701,28 @@
         <v>11</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H92" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>15</v>
+      <c r="H92" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3832,28 +3733,28 @@
         <v>11</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G93" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J93" s="9" t="s">
-        <v>15</v>
+      <c r="H93" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3864,28 +3765,28 @@
         <v>11</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>15</v>
+      <c r="H94" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3896,28 +3797,28 @@
         <v>11</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H95" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>15</v>
+      <c r="H95" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3928,28 +3829,28 @@
         <v>11</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H96" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>15</v>
+      <c r="H96" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3960,28 +3861,28 @@
         <v>11</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G97" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>15</v>
+      <c r="H97" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3992,28 +3893,28 @@
         <v>11</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H98" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>15</v>
+      <c r="H98" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4024,28 +3925,28 @@
         <v>11</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G99" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H99" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J99" s="9" t="s">
-        <v>15</v>
+      <c r="H99" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4056,28 +3957,28 @@
         <v>11</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="G100" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H100" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>15</v>
+      <c r="H100" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4088,28 +3989,28 @@
         <v>11</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="G101" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I101" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J101" s="9" t="s">
-        <v>15</v>
+      <c r="H101" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4120,28 +4021,28 @@
         <v>11</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="G102" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H102" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I102" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J102" s="9" t="s">
-        <v>15</v>
+      <c r="H102" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4152,28 +4053,28 @@
         <v>11</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="G103" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>15</v>
+      <c r="H103" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4184,28 +4085,28 @@
         <v>11</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="G104" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H104" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J104" s="9" t="s">
-        <v>15</v>
+      <c r="H104" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4216,28 +4117,28 @@
         <v>11</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H105" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>15</v>
+      <c r="H105" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4248,28 +4149,28 @@
         <v>11</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="G106" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H106" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>15</v>
+      <c r="H106" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4280,28 +4181,28 @@
         <v>11</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H107" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>15</v>
+      <c r="H107" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4312,28 +4213,28 @@
         <v>11</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="G108" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H108" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J108" s="9" t="s">
-        <v>15</v>
+      <c r="H108" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4344,28 +4245,28 @@
         <v>11</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="G109" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H109" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J109" s="9" t="s">
-        <v>15</v>
+      <c r="H109" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4376,28 +4277,28 @@
         <v>11</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H110" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J110" s="9" t="s">
-        <v>15</v>
+      <c r="H110" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="I110" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="J110" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4408,28 +4309,28 @@
         <v>11</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H111" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="J111" s="9" t="s">
-        <v>15</v>
+      <c r="H111" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I111" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J111" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4440,28 +4341,28 @@
         <v>11</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H112" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="J112" s="9" t="s">
-        <v>15</v>
+      <c r="H112" s="9" t="n">
+        <v>750</v>
+      </c>
+      <c r="I112" s="9" t="n">
+        <v>750</v>
+      </c>
+      <c r="J112" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/reports/cartera/Cartera Valorada.xlsx
+++ b/reports/cartera/Cartera Valorada.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Código</t>
   </si>
@@ -55,339 +55,180 @@
     <t>BGA1A</t>
   </si>
   <si>
-    <t>3888382.32</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>BGA1B</t>
   </si>
   <si>
-    <t>947726.73</t>
-  </si>
-  <si>
     <t>BGA1C</t>
   </si>
   <si>
-    <t>1125397.80</t>
-  </si>
-  <si>
     <t>BGA1D</t>
   </si>
   <si>
-    <t>1354021.92</t>
-  </si>
-  <si>
     <t>BGA1E</t>
   </si>
   <si>
-    <t>3411639.00</t>
-  </si>
-  <si>
     <t>BNB1U</t>
   </si>
   <si>
-    <t>651040.00</t>
-  </si>
-  <si>
     <t>BBB</t>
   </si>
   <si>
     <t>BEC-3-N1U-16</t>
   </si>
   <si>
-    <t>36211.40</t>
-  </si>
-  <si>
     <t>BEC-3-N2U-16</t>
   </si>
   <si>
-    <t>59270.00</t>
-  </si>
-  <si>
     <t>BGA-1-N1A-18</t>
   </si>
   <si>
-    <t>2009938.00</t>
-  </si>
-  <si>
     <t>BME-1-E1C-17</t>
   </si>
   <si>
-    <t>615300.00</t>
-  </si>
-  <si>
     <t>BME-1-N2B-15</t>
   </si>
   <si>
-    <t>7097811.00</t>
-  </si>
-  <si>
     <t>BME-1-N3B-15</t>
   </si>
   <si>
-    <t>2928379.40</t>
-  </si>
-  <si>
     <t>BME-2-E1B-19</t>
   </si>
   <si>
-    <t>204602.50</t>
-  </si>
-  <si>
     <t>BME-2-N3B-16</t>
   </si>
   <si>
-    <t>1099759.00</t>
-  </si>
-  <si>
     <t>BTB-N1U-13</t>
   </si>
   <si>
-    <t>3802564.47</t>
-  </si>
-  <si>
     <t>FIE-N1B-14</t>
   </si>
   <si>
-    <t>511770.00</t>
-  </si>
-  <si>
     <t>BLP</t>
   </si>
   <si>
     <t>BIL-6-N1A-21</t>
   </si>
   <si>
-    <t>706022.49</t>
-  </si>
-  <si>
     <t>FIN-4-N2U-19</t>
   </si>
   <si>
-    <t>2981280.00</t>
-  </si>
-  <si>
     <t>ICT-1-N1A-20</t>
   </si>
   <si>
-    <t>5322849.00</t>
-  </si>
-  <si>
     <t>JSF-1-E1B-19</t>
   </si>
   <si>
-    <t>406944.80</t>
-  </si>
-  <si>
     <t>NIB-1-N1B-19</t>
   </si>
   <si>
-    <t>508769.10</t>
-  </si>
-  <si>
     <t>PAR-1-N1U-16</t>
   </si>
   <si>
-    <t>617325.30</t>
-  </si>
-  <si>
     <t>POL-3-E1U-20</t>
   </si>
   <si>
-    <t>125202.48</t>
-  </si>
-  <si>
     <t>SBC-7-N1U-16</t>
   </si>
   <si>
-    <t>576048.00</t>
-  </si>
-  <si>
     <t>SBC-7-N1U-18</t>
   </si>
   <si>
-    <t>3018978.00</t>
-  </si>
-  <si>
     <t>SBC-7-N2U-19</t>
   </si>
   <si>
-    <t>1410683.40</t>
-  </si>
-  <si>
     <t>SOC-N1U-20</t>
   </si>
   <si>
-    <t>7243420.80</t>
-  </si>
-  <si>
     <t>CFC</t>
   </si>
   <si>
     <t>CGF-N1A-16</t>
   </si>
   <si>
-    <t>6585361.45</t>
-  </si>
-  <si>
     <t>CRF-N1U-15</t>
   </si>
   <si>
-    <t>14950206.64</t>
-  </si>
-  <si>
     <t>DIV-E1U-18</t>
   </si>
   <si>
-    <t>589694.22</t>
-  </si>
-  <si>
     <t>EXP-N1U-18</t>
   </si>
   <si>
-    <t>3306436.50</t>
-  </si>
-  <si>
     <t>INC-N1B-16</t>
   </si>
   <si>
-    <t>511335.00</t>
-  </si>
-  <si>
     <t>SFI-N1U-17</t>
   </si>
   <si>
-    <t>443755.46</t>
-  </si>
-  <si>
     <t>DPF</t>
   </si>
   <si>
     <t>BECN01317716</t>
   </si>
   <si>
-    <t>5826809.49</t>
-  </si>
-  <si>
     <t>BECN03087221</t>
   </si>
   <si>
-    <t>1533359.13</t>
-  </si>
-  <si>
     <t>BECN03087321</t>
   </si>
   <si>
     <t>BECN03211522</t>
   </si>
   <si>
-    <t>5022358.13</t>
-  </si>
-  <si>
     <t>BECN03227222</t>
   </si>
   <si>
-    <t>1101685.95</t>
-  </si>
-  <si>
     <t>BGAE01218221</t>
   </si>
   <si>
-    <t>1013224.52</t>
-  </si>
-  <si>
     <t>BGAE01286321</t>
   </si>
   <si>
-    <t>504947.45</t>
-  </si>
-  <si>
     <t>BGAE01464822</t>
   </si>
   <si>
-    <t>1001100.30</t>
-  </si>
-  <si>
     <t>BISE05612822</t>
   </si>
   <si>
-    <t>500406.00</t>
-  </si>
-  <si>
     <t>BISN02115215</t>
   </si>
   <si>
-    <t>2110124.86</t>
-  </si>
-  <si>
     <t>BMEE12365321</t>
   </si>
   <si>
-    <t>601914.64</t>
-  </si>
-  <si>
     <t>BMEE14594722</t>
   </si>
   <si>
-    <t>110439.55</t>
-  </si>
-  <si>
     <t>BMEE15050522</t>
   </si>
   <si>
-    <t>100193.63</t>
-  </si>
-  <si>
     <t>BMEE15050622</t>
   </si>
   <si>
     <t>BMEE15262522</t>
   </si>
   <si>
-    <t>500461.49</t>
-  </si>
-  <si>
     <t>BSON65167321</t>
   </si>
   <si>
-    <t>2877794.96</t>
-  </si>
-  <si>
     <t>BSON68167421</t>
   </si>
   <si>
-    <t>1063680.14</t>
-  </si>
-  <si>
     <t>BTBN00131815</t>
   </si>
   <si>
-    <t>6161479.09</t>
-  </si>
-  <si>
     <t>BTBN01157019</t>
   </si>
   <si>
-    <t>2937605.74</t>
-  </si>
-  <si>
     <t>BTBN01157119</t>
   </si>
   <si>
     <t>BTBN01193719</t>
   </si>
   <si>
-    <t>2346986.36</t>
-  </si>
-  <si>
     <t>BTBN01195419</t>
   </si>
   <si>
-    <t>1171360.49</t>
-  </si>
-  <si>
     <t>BTBN01195519</t>
   </si>
   <si>
@@ -400,57 +241,30 @@
     <t>BTBN01198219</t>
   </si>
   <si>
-    <t>2341922.59</t>
-  </si>
-  <si>
     <t>BUNE38439420</t>
   </si>
   <si>
-    <t>630494.00</t>
-  </si>
-  <si>
     <t>BUNE45119321</t>
   </si>
   <si>
-    <t>2011214.37</t>
-  </si>
-  <si>
     <t>BUNE45560722</t>
   </si>
   <si>
-    <t>703176.73</t>
-  </si>
-  <si>
     <t>BUNN43569921</t>
   </si>
   <si>
-    <t>1047312.64</t>
-  </si>
-  <si>
     <t>BUNN46603022</t>
   </si>
   <si>
-    <t>511528.01</t>
-  </si>
-  <si>
     <t>BUNN46626822</t>
   </si>
   <si>
-    <t>409492.63</t>
-  </si>
-  <si>
     <t>BUNN46655422</t>
   </si>
   <si>
-    <t>99807.30</t>
-  </si>
-  <si>
     <t>FEFN15651919</t>
   </si>
   <si>
-    <t>2512526.14</t>
-  </si>
-  <si>
     <t>FEFN15652019</t>
   </si>
   <si>
@@ -469,102 +283,57 @@
     <t>FEFN15652519</t>
   </si>
   <si>
-    <t>2311524.05</t>
-  </si>
-  <si>
     <t>FFON06679222</t>
   </si>
   <si>
-    <t>418324.07</t>
-  </si>
-  <si>
     <t>FFON06679322</t>
   </si>
   <si>
-    <t>204060.52</t>
-  </si>
-  <si>
     <t>FFON06679922</t>
   </si>
   <si>
-    <t>510151.30</t>
-  </si>
-  <si>
     <t>FFON06681822</t>
   </si>
   <si>
-    <t>1020167.71</t>
-  </si>
-  <si>
     <t>FFON06725422</t>
   </si>
   <si>
-    <t>516984.08</t>
-  </si>
-  <si>
     <t>FIEE67933922</t>
   </si>
   <si>
-    <t>1005307.52</t>
-  </si>
-  <si>
     <t>FIEE70646322</t>
   </si>
   <si>
-    <t>900528.22</t>
-  </si>
-  <si>
     <t>FIEN68452922</t>
   </si>
   <si>
-    <t>205841.80</t>
-  </si>
-  <si>
     <t>FSLE38800922</t>
   </si>
   <si>
-    <t>363639.80</t>
-  </si>
-  <si>
     <t>FSLN27821616</t>
   </si>
   <si>
-    <t>2446709.69</t>
-  </si>
-  <si>
     <t>FSLN27821716</t>
   </si>
   <si>
     <t>FSLN27825916</t>
   </si>
   <si>
-    <t>2445889.54</t>
-  </si>
-  <si>
     <t>FSLN27826016</t>
   </si>
   <si>
     <t>FSLN27827516</t>
   </si>
   <si>
-    <t>2445687.35</t>
-  </si>
-  <si>
     <t>FSLN27827616</t>
   </si>
   <si>
     <t>FSLN27830616</t>
   </si>
   <si>
-    <t>2445485.19</t>
-  </si>
-  <si>
     <t>NFBN00133420</t>
   </si>
   <si>
-    <t>2785962.03</t>
-  </si>
-  <si>
     <t>NFBN00133520</t>
   </si>
   <si>
@@ -592,21 +361,12 @@
     <t>NFBN00134520</t>
   </si>
   <si>
-    <t>2563085.06</t>
-  </si>
-  <si>
     <t>NFBN00134620</t>
   </si>
   <si>
-    <t>4011785.32</t>
-  </si>
-  <si>
     <t>NFBN00134920</t>
   </si>
   <si>
-    <t>2786187.97</t>
-  </si>
-  <si>
     <t>NFBN00135020</t>
   </si>
   <si>
@@ -634,19 +394,10 @@
     <t>NUT-PB2-E1U</t>
   </si>
   <si>
-    <t>202964.00</t>
-  </si>
-  <si>
     <t>POL-PB1-E13U</t>
   </si>
   <si>
-    <t>1022290.00</t>
-  </si>
-  <si>
     <t>TSM-PB2-E2U</t>
-  </si>
-  <si>
-    <t>756300.00</t>
   </si>
 </sst>
 </file>
@@ -761,9 +512,52 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="logo" id="2" name="logo" title="logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5876925" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -781,196 +575,36 @@
     <col min="10" max="10" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="9" t="n">
-        <v>26328</v>
-      </c>
-      <c r="I2" s="9" t="n">
-        <v>26328</v>
-      </c>
-      <c r="J2" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="9" t="n">
-        <v>6417</v>
-      </c>
-      <c r="I3" s="9" t="n">
-        <v>6417</v>
-      </c>
-      <c r="J3" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <v>7620</v>
-      </c>
-      <c r="I4" s="9" t="n">
-        <v>7620</v>
-      </c>
-      <c r="J4" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <v>9168</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>9168</v>
-      </c>
-      <c r="J5" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>23100</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>23100</v>
-      </c>
-      <c r="J6" s="9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -984,22 +618,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>3888382.32</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>3888382.32</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H7" s="9" t="n">
-        <v>52000</v>
+        <v>26328</v>
       </c>
       <c r="I7" s="9" t="n">
-        <v>52000</v>
+        <v>26328</v>
       </c>
       <c r="J7" s="9" t="n">
         <v>0</v>
@@ -1013,25 +647,25 @@
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>947726.73</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>947726.73</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H8" s="9" t="n">
-        <v>10</v>
+        <v>6417</v>
       </c>
       <c r="I8" s="9" t="n">
-        <v>10</v>
+        <v>6417</v>
       </c>
       <c r="J8" s="9" t="n">
         <v>0</v>
@@ -1045,25 +679,25 @@
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="E9" s="9" t="n">
+        <v>1125397.8</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>1125397.8</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" s="9" t="n">
-        <v>10</v>
+        <v>7620</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>10</v>
+        <v>7620</v>
       </c>
       <c r="J9" s="9" t="n">
         <v>0</v>
@@ -1077,25 +711,25 @@
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>1354021.92</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>1354021.92</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H10" s="9" t="n">
-        <v>200</v>
+        <v>9168</v>
       </c>
       <c r="I10" s="9" t="n">
-        <v>200</v>
+        <v>9168</v>
       </c>
       <c r="J10" s="9" t="n">
         <v>0</v>
@@ -1109,25 +743,25 @@
         <v>11</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>3411639</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>3411639</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H11" s="9" t="n">
-        <v>600</v>
+        <v>23100</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>600</v>
+        <v>23100</v>
       </c>
       <c r="J11" s="9" t="n">
         <v>0</v>
@@ -1141,25 +775,25 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>651040</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>651040</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H12" s="9" t="n">
-        <v>700</v>
+        <v>52000</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>700</v>
+        <v>52000</v>
       </c>
       <c r="J12" s="9" t="n">
         <v>0</v>
@@ -1173,25 +807,25 @@
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>36211.4</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>36211.4</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H13" s="9" t="n">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="I13" s="9" t="n">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="J13" s="9" t="n">
         <v>0</v>
@@ -1205,25 +839,25 @@
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>59270</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>59270</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H14" s="9" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="I14" s="9" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="J14" s="9" t="n">
         <v>0</v>
@@ -1237,25 +871,25 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>2009938</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>2009938</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H15" s="9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I15" s="9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J15" s="9" t="n">
         <v>0</v>
@@ -1269,25 +903,25 @@
         <v>11</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>615300</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>615300</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H16" s="9" t="n">
-        <v>31</v>
+        <v>600</v>
       </c>
       <c r="I16" s="9" t="n">
-        <v>31</v>
+        <v>600</v>
       </c>
       <c r="J16" s="9" t="n">
         <v>0</v>
@@ -1301,25 +935,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>7097811</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>7097811</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H17" s="9" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I17" s="9" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J17" s="9" t="n">
         <v>0</v>
@@ -1333,25 +967,25 @@
         <v>11</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>2928379.4</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>2928379.4</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H18" s="9" t="n">
-        <v>69</v>
+        <v>290</v>
       </c>
       <c r="I18" s="9" t="n">
-        <v>69</v>
+        <v>290</v>
       </c>
       <c r="J18" s="9" t="n">
         <v>0</v>
@@ -1365,25 +999,25 @@
         <v>11</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>204602.5</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>204602.5</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H19" s="9" t="n">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="I19" s="9" t="n">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="J19" s="9" t="n">
         <v>0</v>
@@ -1397,25 +1031,25 @@
         <v>11</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>1099759</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1099759</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H20" s="9" t="n">
-        <v>1050</v>
+        <v>100</v>
       </c>
       <c r="I20" s="9" t="n">
-        <v>1050</v>
+        <v>100</v>
       </c>
       <c r="J20" s="9" t="n">
         <v>0</v>
@@ -1429,25 +1063,25 @@
         <v>11</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>3802564.47</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3802564.47</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H21" s="9" t="n">
-        <v>395</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9" t="n">
-        <v>395</v>
+        <v>31</v>
       </c>
       <c r="J21" s="9" t="n">
         <v>0</v>
@@ -1461,25 +1095,25 @@
         <v>11</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>511770</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>511770</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H22" s="9" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I22" s="9" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J22" s="9" t="n">
         <v>0</v>
@@ -1493,25 +1127,25 @@
         <v>11</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>706022.49</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>706022.49</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H23" s="9" t="n">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9" t="n">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="J23" s="9" t="n">
         <v>0</v>
@@ -1525,25 +1159,25 @@
         <v>11</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>2981280</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2981280</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H24" s="9" t="n">
-        <v>13</v>
+        <v>3000</v>
       </c>
       <c r="I24" s="9" t="n">
-        <v>13</v>
+        <v>3000</v>
       </c>
       <c r="J24" s="9" t="n">
         <v>0</v>
@@ -1557,25 +1191,25 @@
         <v>11</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>3295097</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3295097</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H25" s="9" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="I25" s="9" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="J25" s="9" t="n">
         <v>0</v>
@@ -1589,25 +1223,25 @@
         <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>406944.8</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>406944.8</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H26" s="9" t="n">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="I26" s="9" t="n">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="J26" s="9" t="n">
         <v>0</v>
@@ -1621,25 +1255,25 @@
         <v>11</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>508769.1</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>508769.1</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H27" s="9" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="I27" s="9" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="J27" s="9" t="n">
         <v>0</v>
@@ -1653,25 +1287,25 @@
         <v>11</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>617325.3</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>617325.3</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H28" s="9" t="n">
-        <v>6888</v>
+        <v>135</v>
       </c>
       <c r="I28" s="9" t="n">
-        <v>6888</v>
+        <v>135</v>
       </c>
       <c r="J28" s="9" t="n">
         <v>0</v>
@@ -1685,25 +1319,25 @@
         <v>11</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>125202.48</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>125202.48</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H29" s="9" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I29" s="9" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J29" s="9" t="n">
         <v>0</v>
@@ -1717,25 +1351,25 @@
         <v>11</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>576048</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>576048</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H30" s="9" t="n">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="I30" s="9" t="n">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="J30" s="9" t="n">
         <v>0</v>
@@ -1749,25 +1383,25 @@
         <v>11</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>3018978</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>3018978</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H31" s="9" t="n">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="I31" s="9" t="n">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="J31" s="9" t="n">
         <v>0</v>
@@ -1781,25 +1415,25 @@
         <v>11</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>1410683.4</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>1410683.4</v>
+      </c>
+      <c r="G32" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H32" s="9" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="I32" s="9" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J32" s="9" t="n">
         <v>0</v>
@@ -1813,25 +1447,25 @@
         <v>11</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="E33" s="9" t="n">
+        <v>7243420.8</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>7243420.8</v>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H33" s="9" t="n">
-        <v>500</v>
+        <v>6888</v>
       </c>
       <c r="I33" s="9" t="n">
-        <v>500</v>
+        <v>6888</v>
       </c>
       <c r="J33" s="9" t="n">
         <v>0</v>
@@ -1845,25 +1479,25 @@
         <v>11</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="E34" s="9" t="n">
+        <v>6585361.45</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>6585361.45</v>
+      </c>
+      <c r="G34" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H34" s="9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I34" s="9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J34" s="9" t="n">
         <v>0</v>
@@ -1877,25 +1511,25 @@
         <v>11</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="E35" s="9" t="n">
+        <v>14950206.64</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>14950206.64</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H35" s="9" t="n">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="I35" s="9" t="n">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="J35" s="9" t="n">
         <v>0</v>
@@ -1909,25 +1543,25 @@
         <v>11</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="E36" s="9" t="n">
+        <v>589694.22</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>589694.22</v>
+      </c>
+      <c r="G36" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H36" s="9" t="n">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="I36" s="9" t="n">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="J36" s="9" t="n">
         <v>0</v>
@@ -1941,25 +1575,25 @@
         <v>11</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9" t="n">
+        <v>3306436.5</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>3306436.5</v>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H37" s="9" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" s="9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J37" s="9" t="n">
         <v>0</v>
@@ -1973,25 +1607,25 @@
         <v>11</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="E38" s="9" t="n">
+        <v>511335</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>511335</v>
+      </c>
+      <c r="G38" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H38" s="9" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="I38" s="9" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="J38" s="9" t="n">
         <v>0</v>
@@ -2005,25 +1639,25 @@
         <v>11</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="E39" s="9" t="n">
+        <v>443755.46</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>443755.46</v>
+      </c>
+      <c r="G39" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H39" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="9" t="n">
         <v>0</v>
@@ -2037,19 +1671,19 @@
         <v>11</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="E40" s="9" t="n">
+        <v>5826809.49</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>5826809.49</v>
+      </c>
+      <c r="G40" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H40" s="9" t="n">
         <v>1</v>
@@ -2069,19 +1703,19 @@
         <v>11</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="E41" s="9" t="n">
+        <v>1533359.13</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>1533359.13</v>
+      </c>
+      <c r="G41" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H41" s="9" t="n">
         <v>1</v>
@@ -2101,19 +1735,19 @@
         <v>11</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="E42" s="9" t="n">
+        <v>1533359.13</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>1533359.13</v>
+      </c>
+      <c r="G42" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H42" s="9" t="n">
         <v>1</v>
@@ -2133,19 +1767,19 @@
         <v>11</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="E43" s="9" t="n">
+        <v>5022358.13</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>5022358.13</v>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H43" s="9" t="n">
         <v>1</v>
@@ -2165,19 +1799,19 @@
         <v>11</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="E44" s="9" t="n">
+        <v>1101685.95</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>1101685.95</v>
+      </c>
+      <c r="G44" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H44" s="9" t="n">
         <v>1</v>
@@ -2197,19 +1831,19 @@
         <v>11</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="E45" s="9" t="n">
+        <v>1013224.52</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>1013224.52</v>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H45" s="9" t="n">
         <v>1</v>
@@ -2229,19 +1863,19 @@
         <v>11</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="E46" s="9" t="n">
+        <v>504947.45</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>504947.45</v>
+      </c>
+      <c r="G46" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H46" s="9" t="n">
         <v>1</v>
@@ -2261,19 +1895,19 @@
         <v>11</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="E47" s="9" t="n">
+        <v>1001100.3</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1001100.3</v>
+      </c>
+      <c r="G47" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H47" s="9" t="n">
         <v>1</v>
@@ -2293,19 +1927,19 @@
         <v>11</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="E48" s="9" t="n">
+        <v>500406</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>500406</v>
+      </c>
+      <c r="G48" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H48" s="9" t="n">
         <v>1</v>
@@ -2325,19 +1959,19 @@
         <v>11</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="E49" s="9" t="n">
+        <v>2110124.86</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2110124.86</v>
+      </c>
+      <c r="G49" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H49" s="9" t="n">
         <v>1</v>
@@ -2357,19 +1991,19 @@
         <v>11</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="E50" s="9" t="n">
+        <v>601914.64</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>601914.64</v>
+      </c>
+      <c r="G50" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H50" s="9" t="n">
         <v>1</v>
@@ -2389,19 +2023,19 @@
         <v>11</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="E51" s="9" t="n">
+        <v>110439.55</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>110439.55</v>
+      </c>
+      <c r="G51" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H51" s="9" t="n">
         <v>1</v>
@@ -2421,19 +2055,19 @@
         <v>11</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="E52" s="9" t="n">
+        <v>100193.63</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>100193.63</v>
+      </c>
+      <c r="G52" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H52" s="9" t="n">
         <v>1</v>
@@ -2453,19 +2087,19 @@
         <v>11</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="E53" s="9" t="n">
+        <v>100193.63</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>100193.63</v>
+      </c>
+      <c r="G53" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H53" s="9" t="n">
         <v>1</v>
@@ -2485,19 +2119,19 @@
         <v>11</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="E54" s="9" t="n">
+        <v>500461.49</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>500461.49</v>
+      </c>
+      <c r="G54" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H54" s="9" t="n">
         <v>1</v>
@@ -2517,19 +2151,19 @@
         <v>11</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>15</v>
+        <v>65</v>
+      </c>
+      <c r="E55" s="9" t="n">
+        <v>2877794.96</v>
+      </c>
+      <c r="F55" s="9" t="n">
+        <v>2877794.96</v>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H55" s="9" t="n">
         <v>1</v>
@@ -2549,19 +2183,19 @@
         <v>11</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="E56" s="9" t="n">
+        <v>1063680.14</v>
+      </c>
+      <c r="F56" s="9" t="n">
+        <v>1063680.14</v>
+      </c>
+      <c r="G56" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H56" s="9" t="n">
         <v>1</v>
@@ -2581,19 +2215,19 @@
         <v>11</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="E57" s="9" t="n">
+        <v>6161479.09</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>6161479.09</v>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H57" s="9" t="n">
         <v>1</v>
@@ -2613,19 +2247,19 @@
         <v>11</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="E58" s="9" t="n">
+        <v>2937605.74</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>2937605.74</v>
+      </c>
+      <c r="G58" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H58" s="9" t="n">
         <v>1</v>
@@ -2645,19 +2279,19 @@
         <v>11</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="E59" s="9" t="n">
+        <v>2937605.74</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>2937605.74</v>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H59" s="9" t="n">
         <v>1</v>
@@ -2677,19 +2311,19 @@
         <v>11</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="E60" s="9" t="n">
+        <v>2346986.36</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>2346986.36</v>
+      </c>
+      <c r="G60" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H60" s="9" t="n">
         <v>1</v>
@@ -2709,19 +2343,19 @@
         <v>11</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="E61" s="9" t="n">
+        <v>1171360.49</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1171360.49</v>
+      </c>
+      <c r="G61" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H61" s="9" t="n">
         <v>1</v>
@@ -2741,19 +2375,19 @@
         <v>11</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>15</v>
+        <v>72</v>
+      </c>
+      <c r="E62" s="9" t="n">
+        <v>1171360.49</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1171360.49</v>
+      </c>
+      <c r="G62" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H62" s="9" t="n">
         <v>1</v>
@@ -2773,19 +2407,19 @@
         <v>11</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>15</v>
+        <v>73</v>
+      </c>
+      <c r="E63" s="9" t="n">
+        <v>1171360.49</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1171360.49</v>
+      </c>
+      <c r="G63" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H63" s="9" t="n">
         <v>1</v>
@@ -2805,19 +2439,19 @@
         <v>11</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>15</v>
+        <v>74</v>
+      </c>
+      <c r="E64" s="9" t="n">
+        <v>1171360.49</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1171360.49</v>
+      </c>
+      <c r="G64" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H64" s="9" t="n">
         <v>1</v>
@@ -2837,19 +2471,19 @@
         <v>11</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="E65" s="9" t="n">
+        <v>2341922.59</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2341922.59</v>
+      </c>
+      <c r="G65" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H65" s="9" t="n">
         <v>1</v>
@@ -2869,19 +2503,19 @@
         <v>11</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="E66" s="9" t="n">
+        <v>630494</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>630494</v>
+      </c>
+      <c r="G66" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H66" s="9" t="n">
         <v>1</v>
@@ -2901,19 +2535,19 @@
         <v>11</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="E67" s="9" t="n">
+        <v>2011214.37</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>2011214.37</v>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H67" s="9" t="n">
         <v>1</v>
@@ -2933,19 +2567,19 @@
         <v>11</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E68" s="9" t="n">
+        <v>703176.73</v>
+      </c>
+      <c r="F68" s="9" t="n">
+        <v>703176.73</v>
+      </c>
+      <c r="G68" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H68" s="9" t="n">
         <v>1</v>
@@ -2965,19 +2599,19 @@
         <v>11</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>15</v>
+        <v>79</v>
+      </c>
+      <c r="E69" s="9" t="n">
+        <v>1047312.64</v>
+      </c>
+      <c r="F69" s="9" t="n">
+        <v>1047312.64</v>
+      </c>
+      <c r="G69" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H69" s="9" t="n">
         <v>1</v>
@@ -2997,19 +2631,19 @@
         <v>11</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="E70" s="9" t="n">
+        <v>511528.01</v>
+      </c>
+      <c r="F70" s="9" t="n">
+        <v>511528.01</v>
+      </c>
+      <c r="G70" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H70" s="9" t="n">
         <v>1</v>
@@ -3029,19 +2663,19 @@
         <v>11</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="E71" s="9" t="n">
+        <v>409492.63</v>
+      </c>
+      <c r="F71" s="9" t="n">
+        <v>409492.63</v>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H71" s="9" t="n">
         <v>1</v>
@@ -3061,19 +2695,19 @@
         <v>11</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="E72" s="9" t="n">
+        <v>99807.3</v>
+      </c>
+      <c r="F72" s="9" t="n">
+        <v>99807.3</v>
+      </c>
+      <c r="G72" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H72" s="9" t="n">
         <v>1</v>
@@ -3093,19 +2727,19 @@
         <v>11</v>
       </c>
       <c r="C73" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>15</v>
+      <c r="E73" s="9" t="n">
+        <v>2512526.14</v>
+      </c>
+      <c r="F73" s="9" t="n">
+        <v>2512526.14</v>
+      </c>
+      <c r="G73" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H73" s="9" t="n">
         <v>1</v>
@@ -3125,19 +2759,19 @@
         <v>11</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>15</v>
+        <v>84</v>
+      </c>
+      <c r="E74" s="9" t="n">
+        <v>2512526.14</v>
+      </c>
+      <c r="F74" s="9" t="n">
+        <v>2512526.14</v>
+      </c>
+      <c r="G74" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H74" s="9" t="n">
         <v>1</v>
@@ -3157,19 +2791,19 @@
         <v>11</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="E75" s="9" t="n">
+        <v>2512526.14</v>
+      </c>
+      <c r="F75" s="9" t="n">
+        <v>2512526.14</v>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H75" s="9" t="n">
         <v>1</v>
@@ -3189,19 +2823,19 @@
         <v>11</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>15</v>
+        <v>86</v>
+      </c>
+      <c r="E76" s="9" t="n">
+        <v>2512526.14</v>
+      </c>
+      <c r="F76" s="9" t="n">
+        <v>2512526.14</v>
+      </c>
+      <c r="G76" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H76" s="9" t="n">
         <v>1</v>
@@ -3221,19 +2855,19 @@
         <v>11</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="E77" s="9" t="n">
+        <v>2512526.14</v>
+      </c>
+      <c r="F77" s="9" t="n">
+        <v>2512526.14</v>
+      </c>
+      <c r="G77" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H77" s="9" t="n">
         <v>1</v>
@@ -3253,19 +2887,19 @@
         <v>11</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>15</v>
+        <v>88</v>
+      </c>
+      <c r="E78" s="9" t="n">
+        <v>2512526.14</v>
+      </c>
+      <c r="F78" s="9" t="n">
+        <v>2512526.14</v>
+      </c>
+      <c r="G78" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H78" s="9" t="n">
         <v>1</v>
@@ -3285,19 +2919,19 @@
         <v>11</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="E79" s="9" t="n">
+        <v>2311524.05</v>
+      </c>
+      <c r="F79" s="9" t="n">
+        <v>2311524.05</v>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H79" s="9" t="n">
         <v>1</v>
@@ -3317,19 +2951,19 @@
         <v>11</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>15</v>
+        <v>90</v>
+      </c>
+      <c r="E80" s="9" t="n">
+        <v>418324.07</v>
+      </c>
+      <c r="F80" s="9" t="n">
+        <v>418324.07</v>
+      </c>
+      <c r="G80" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H80" s="9" t="n">
         <v>1</v>
@@ -3349,19 +2983,19 @@
         <v>11</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+      <c r="E81" s="9" t="n">
+        <v>204060.52</v>
+      </c>
+      <c r="F81" s="9" t="n">
+        <v>204060.52</v>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H81" s="9" t="n">
         <v>1</v>
@@ -3381,19 +3015,19 @@
         <v>11</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="E82" s="9" t="n">
+        <v>510151.3</v>
+      </c>
+      <c r="F82" s="9" t="n">
+        <v>510151.3</v>
+      </c>
+      <c r="G82" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H82" s="9" t="n">
         <v>1</v>
@@ -3413,19 +3047,19 @@
         <v>11</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>15</v>
+        <v>93</v>
+      </c>
+      <c r="E83" s="9" t="n">
+        <v>1020167.71</v>
+      </c>
+      <c r="F83" s="9" t="n">
+        <v>1020167.71</v>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H83" s="9" t="n">
         <v>1</v>
@@ -3445,19 +3079,19 @@
         <v>11</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>15</v>
+        <v>94</v>
+      </c>
+      <c r="E84" s="9" t="n">
+        <v>516984.08</v>
+      </c>
+      <c r="F84" s="9" t="n">
+        <v>516984.08</v>
+      </c>
+      <c r="G84" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H84" s="9" t="n">
         <v>1</v>
@@ -3477,19 +3111,19 @@
         <v>11</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>15</v>
+        <v>95</v>
+      </c>
+      <c r="E85" s="9" t="n">
+        <v>1005307.52</v>
+      </c>
+      <c r="F85" s="9" t="n">
+        <v>1005307.52</v>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H85" s="9" t="n">
         <v>1</v>
@@ -3509,19 +3143,19 @@
         <v>11</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>15</v>
+        <v>96</v>
+      </c>
+      <c r="E86" s="9" t="n">
+        <v>900528.22</v>
+      </c>
+      <c r="F86" s="9" t="n">
+        <v>900528.22</v>
+      </c>
+      <c r="G86" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H86" s="9" t="n">
         <v>1</v>
@@ -3541,19 +3175,19 @@
         <v>11</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>15</v>
+        <v>97</v>
+      </c>
+      <c r="E87" s="9" t="n">
+        <v>205841.8</v>
+      </c>
+      <c r="F87" s="9" t="n">
+        <v>205841.8</v>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H87" s="9" t="n">
         <v>1</v>
@@ -3573,19 +3207,19 @@
         <v>11</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>15</v>
+        <v>98</v>
+      </c>
+      <c r="E88" s="9" t="n">
+        <v>363639.8</v>
+      </c>
+      <c r="F88" s="9" t="n">
+        <v>363639.8</v>
+      </c>
+      <c r="G88" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H88" s="9" t="n">
         <v>1</v>
@@ -3605,19 +3239,19 @@
         <v>11</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>15</v>
+        <v>99</v>
+      </c>
+      <c r="E89" s="9" t="n">
+        <v>2446709.69</v>
+      </c>
+      <c r="F89" s="9" t="n">
+        <v>2446709.69</v>
+      </c>
+      <c r="G89" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H89" s="9" t="n">
         <v>1</v>
@@ -3637,19 +3271,19 @@
         <v>11</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>15</v>
+        <v>100</v>
+      </c>
+      <c r="E90" s="9" t="n">
+        <v>2446709.69</v>
+      </c>
+      <c r="F90" s="9" t="n">
+        <v>2446709.69</v>
+      </c>
+      <c r="G90" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H90" s="9" t="n">
         <v>1</v>
@@ -3669,19 +3303,19 @@
         <v>11</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>15</v>
+        <v>101</v>
+      </c>
+      <c r="E91" s="9" t="n">
+        <v>2445889.54</v>
+      </c>
+      <c r="F91" s="9" t="n">
+        <v>2445889.54</v>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H91" s="9" t="n">
         <v>1</v>
@@ -3701,19 +3335,19 @@
         <v>11</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>15</v>
+        <v>102</v>
+      </c>
+      <c r="E92" s="9" t="n">
+        <v>2445889.54</v>
+      </c>
+      <c r="F92" s="9" t="n">
+        <v>2445889.54</v>
+      </c>
+      <c r="G92" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H92" s="9" t="n">
         <v>1</v>
@@ -3733,19 +3367,19 @@
         <v>11</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>15</v>
+        <v>103</v>
+      </c>
+      <c r="E93" s="9" t="n">
+        <v>2445687.35</v>
+      </c>
+      <c r="F93" s="9" t="n">
+        <v>2445687.35</v>
+      </c>
+      <c r="G93" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H93" s="9" t="n">
         <v>1</v>
@@ -3765,19 +3399,19 @@
         <v>11</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
+      </c>
+      <c r="E94" s="9" t="n">
+        <v>2445687.35</v>
+      </c>
+      <c r="F94" s="9" t="n">
+        <v>2445687.35</v>
+      </c>
+      <c r="G94" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H94" s="9" t="n">
         <v>1</v>
@@ -3797,19 +3431,19 @@
         <v>11</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>15</v>
+        <v>105</v>
+      </c>
+      <c r="E95" s="9" t="n">
+        <v>2445485.19</v>
+      </c>
+      <c r="F95" s="9" t="n">
+        <v>2445485.19</v>
+      </c>
+      <c r="G95" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H95" s="9" t="n">
         <v>1</v>
@@ -3829,19 +3463,19 @@
         <v>11</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>15</v>
+        <v>106</v>
+      </c>
+      <c r="E96" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="F96" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="G96" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H96" s="9" t="n">
         <v>1</v>
@@ -3861,19 +3495,19 @@
         <v>11</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="E97" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="F97" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="G97" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H97" s="9" t="n">
         <v>1</v>
@@ -3893,19 +3527,19 @@
         <v>11</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>15</v>
+        <v>108</v>
+      </c>
+      <c r="E98" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="F98" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="G98" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H98" s="9" t="n">
         <v>1</v>
@@ -3925,19 +3559,19 @@
         <v>11</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>15</v>
+        <v>109</v>
+      </c>
+      <c r="E99" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="F99" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="G99" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H99" s="9" t="n">
         <v>1</v>
@@ -3957,19 +3591,19 @@
         <v>11</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>15</v>
+        <v>110</v>
+      </c>
+      <c r="E100" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="F100" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="G100" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H100" s="9" t="n">
         <v>1</v>
@@ -3989,19 +3623,19 @@
         <v>11</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="E101" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="F101" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="G101" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H101" s="9" t="n">
         <v>1</v>
@@ -4021,19 +3655,19 @@
         <v>11</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>15</v>
+        <v>112</v>
+      </c>
+      <c r="E102" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="F102" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="G102" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H102" s="9" t="n">
         <v>1</v>
@@ -4053,19 +3687,19 @@
         <v>11</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>15</v>
+        <v>113</v>
+      </c>
+      <c r="E103" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="F103" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H103" s="9" t="n">
         <v>1</v>
@@ -4085,19 +3719,19 @@
         <v>11</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>15</v>
+        <v>114</v>
+      </c>
+      <c r="E104" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="F104" s="9" t="n">
+        <v>2785962.03</v>
+      </c>
+      <c r="G104" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H104" s="9" t="n">
         <v>1</v>
@@ -4117,19 +3751,19 @@
         <v>11</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>15</v>
+        <v>115</v>
+      </c>
+      <c r="E105" s="9" t="n">
+        <v>2563085.06</v>
+      </c>
+      <c r="F105" s="9" t="n">
+        <v>2563085.06</v>
+      </c>
+      <c r="G105" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H105" s="9" t="n">
         <v>1</v>
@@ -4149,19 +3783,19 @@
         <v>11</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>15</v>
+        <v>116</v>
+      </c>
+      <c r="E106" s="9" t="n">
+        <v>4011785.32</v>
+      </c>
+      <c r="F106" s="9" t="n">
+        <v>4011785.32</v>
+      </c>
+      <c r="G106" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H106" s="9" t="n">
         <v>1</v>
@@ -4181,19 +3815,19 @@
         <v>11</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>15</v>
+        <v>117</v>
+      </c>
+      <c r="E107" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="F107" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="G107" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H107" s="9" t="n">
         <v>1</v>
@@ -4213,19 +3847,19 @@
         <v>11</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>15</v>
+        <v>118</v>
+      </c>
+      <c r="E108" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="F108" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="G108" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H108" s="9" t="n">
         <v>1</v>
@@ -4245,19 +3879,19 @@
         <v>11</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>15</v>
+        <v>119</v>
+      </c>
+      <c r="E109" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="F109" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="G109" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H109" s="9" t="n">
         <v>1</v>
@@ -4277,25 +3911,25 @@
         <v>11</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="E110" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="F110" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="G110" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H110" s="9" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="I110" s="9" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="J110" s="9" t="n">
         <v>0</v>
@@ -4309,25 +3943,25 @@
         <v>11</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>15</v>
+        <v>121</v>
+      </c>
+      <c r="E111" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="F111" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="G111" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H111" s="9" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I111" s="9" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J111" s="9" t="n">
         <v>0</v>
@@ -4341,31 +3975,192 @@
         <v>11</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>15</v>
+        <v>122</v>
+      </c>
+      <c r="E112" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="F112" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="G112" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="H112" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E113" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="F113" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="G113" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="F114" s="9" t="n">
+        <v>2786187.97</v>
+      </c>
+      <c r="G114" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" s="9" t="n">
+        <v>202964</v>
+      </c>
+      <c r="F115" s="9" t="n">
+        <v>202964</v>
+      </c>
+      <c r="G115" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="I115" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="J115" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" s="9" t="n">
+        <v>1022290</v>
+      </c>
+      <c r="F116" s="9" t="n">
+        <v>1022290</v>
+      </c>
+      <c r="G116" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I116" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J116" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" s="9" t="n">
+        <v>756300</v>
+      </c>
+      <c r="F117" s="9" t="n">
+        <v>756300</v>
+      </c>
+      <c r="G117" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" s="9" t="n">
         <v>750</v>
       </c>
-      <c r="I112" s="9" t="n">
+      <c r="I117" s="9" t="n">
         <v>750</v>
       </c>
-      <c r="J112" s="9" t="n">
+      <c r="J117" s="9" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>